--- a/HTML-CSS/28. Cas - Test/Test-HTML-CSS.xlsx
+++ b/HTML-CSS/28. Cas - Test/Test-HTML-CSS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dženan Košuta\GitHub\IT Camp - 3. grupa\HTML-CSS\28. Cas - Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D332A80F-0329-4E82-89C1-DF0CB826CF89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{353C5307-153B-4FED-BA99-E773AD12EEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -603,12 +603,18 @@
       <c r="C4" s="2">
         <v>30</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="3"/>
+      <c r="D4" s="3">
+        <v>16</v>
+      </c>
+      <c r="E4" s="5">
+        <v>28</v>
+      </c>
+      <c r="F4" s="3">
+        <v>20</v>
+      </c>
       <c r="G4" s="4">
         <f>SUM(C4:F4)</f>
-        <v>30</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -621,12 +627,18 @@
       <c r="C5" s="2">
         <v>30</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="3"/>
+      <c r="D5" s="3">
+        <v>16</v>
+      </c>
+      <c r="E5" s="5">
+        <v>28</v>
+      </c>
+      <c r="F5" s="3">
+        <v>18</v>
+      </c>
       <c r="G5" s="4">
         <f t="shared" ref="G5:G20" si="0">SUM(C5:F5)</f>
-        <v>30</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -639,12 +651,18 @@
       <c r="C6" s="2">
         <v>30</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="3"/>
+      <c r="D6" s="3">
+        <v>18</v>
+      </c>
+      <c r="E6" s="5">
+        <v>26</v>
+      </c>
+      <c r="F6" s="3">
+        <v>17</v>
+      </c>
       <c r="G6" s="4">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -657,12 +675,18 @@
       <c r="C7" s="2">
         <v>30</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="3"/>
+      <c r="D7" s="3">
+        <v>20</v>
+      </c>
+      <c r="E7" s="5">
+        <v>28</v>
+      </c>
+      <c r="F7" s="3">
+        <v>20</v>
+      </c>
       <c r="G7" s="4">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -675,12 +699,18 @@
       <c r="C8" s="2">
         <v>24</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="3"/>
+      <c r="D8" s="3">
+        <v>16</v>
+      </c>
+      <c r="E8" s="5">
+        <v>26</v>
+      </c>
+      <c r="F8" s="3">
+        <v>15</v>
+      </c>
       <c r="G8" s="4">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -693,12 +723,18 @@
       <c r="C9" s="2">
         <v>25</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="3"/>
+      <c r="D9" s="3">
+        <v>20</v>
+      </c>
+      <c r="E9" s="5">
+        <v>25</v>
+      </c>
+      <c r="F9" s="3">
+        <v>18</v>
+      </c>
       <c r="G9" s="4">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -711,12 +747,18 @@
       <c r="C10" s="2">
         <v>27</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="3"/>
+      <c r="D10" s="3">
+        <v>16</v>
+      </c>
+      <c r="E10" s="5">
+        <v>24</v>
+      </c>
+      <c r="F10" s="3">
+        <v>19</v>
+      </c>
       <c r="G10" s="4">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -729,12 +771,18 @@
       <c r="C11" s="2">
         <v>30</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="3"/>
+      <c r="D11" s="3">
+        <v>20</v>
+      </c>
+      <c r="E11" s="5">
+        <v>26</v>
+      </c>
+      <c r="F11" s="3">
+        <v>18</v>
+      </c>
       <c r="G11" s="4">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -747,12 +795,18 @@
       <c r="C12" s="2">
         <v>30</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="3"/>
+      <c r="D12" s="3">
+        <v>18</v>
+      </c>
+      <c r="E12" s="5">
+        <v>27</v>
+      </c>
+      <c r="F12" s="3">
+        <v>18</v>
+      </c>
       <c r="G12" s="4">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -765,12 +819,18 @@
       <c r="C13" s="2">
         <v>27</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="3"/>
+      <c r="D13" s="3">
+        <v>20</v>
+      </c>
+      <c r="E13" s="5">
+        <v>26</v>
+      </c>
+      <c r="F13" s="3">
+        <v>16</v>
+      </c>
       <c r="G13" s="4">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -783,12 +843,18 @@
       <c r="C14" s="2">
         <v>24</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="3"/>
+      <c r="D14" s="3">
+        <v>20</v>
+      </c>
+      <c r="E14" s="5">
+        <v>26</v>
+      </c>
+      <c r="F14" s="3">
+        <v>20</v>
+      </c>
       <c r="G14" s="4">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -801,12 +867,18 @@
       <c r="C15" s="2">
         <v>30</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="3"/>
+      <c r="D15" s="3">
+        <v>20</v>
+      </c>
+      <c r="E15" s="5">
+        <v>30</v>
+      </c>
+      <c r="F15" s="3">
+        <v>20</v>
+      </c>
       <c r="G15" s="4">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -819,12 +891,18 @@
       <c r="C16" s="2">
         <v>27</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="3"/>
+      <c r="D16" s="3">
+        <v>20</v>
+      </c>
+      <c r="E16" s="5">
+        <v>30</v>
+      </c>
+      <c r="F16" s="3">
+        <v>20</v>
+      </c>
       <c r="G16" s="4">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -837,12 +915,18 @@
       <c r="C17" s="2">
         <v>30</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="3"/>
+      <c r="D17" s="3">
+        <v>20</v>
+      </c>
+      <c r="E17" s="5">
+        <v>25</v>
+      </c>
+      <c r="F17" s="3">
+        <v>14</v>
+      </c>
       <c r="G17" s="4">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -855,12 +939,18 @@
       <c r="C18" s="2">
         <v>30</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="3"/>
+      <c r="D18" s="3">
+        <v>18</v>
+      </c>
+      <c r="E18" s="5">
+        <v>28</v>
+      </c>
+      <c r="F18" s="3">
+        <v>20</v>
+      </c>
       <c r="G18" s="4">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -873,12 +963,18 @@
       <c r="C19" s="2">
         <v>27</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="3"/>
+      <c r="D19" s="3">
+        <v>20</v>
+      </c>
+      <c r="E19" s="5">
+        <v>28</v>
+      </c>
+      <c r="F19" s="3">
+        <v>20</v>
+      </c>
       <c r="G19" s="4">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -891,12 +987,18 @@
       <c r="C20" s="2">
         <v>27</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="3"/>
+      <c r="D20" s="3">
+        <v>20</v>
+      </c>
+      <c r="E20" s="5">
+        <v>30</v>
+      </c>
+      <c r="F20" s="3">
+        <v>20</v>
+      </c>
       <c r="G20" s="4">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
